--- a/src/test/java/testdatas/Stringdata.xlsx
+++ b/src/test/java/testdatas/Stringdata.xlsx
@@ -20,10 +20,10 @@
     <t>Product Price</t>
   </si>
   <si>
-    <t>Leon Stripe Down Hooded Vest</t>
+    <t>Stripe T-Shirt</t>
   </si>
   <si>
-    <t>INR 20630.40</t>
+    <t>INR 6898.57</t>
   </si>
 </sst>
 </file>
